--- a/Excel/TankCfg.xlsx
+++ b/Excel/TankCfg.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21702"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21722"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D6787F-3960-4044-BCF3-11AB75FF2FA2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541DD043-8AD4-4AB7-B667-749E47F46D98}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1830" windowWidth="23040" windowHeight="13275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8850" yWindow="2325" windowWidth="17460" windowHeight="13275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>AppType.ClientH |  AppType.AllServer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,10 +126,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>是否在售</t>
   </si>
   <si>
@@ -148,7 +144,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>ui://Images/tank01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://Images/tank02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://Images/tank03</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -483,7 +487,7 @@
   <dimension ref="A1:K64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -528,7 +532,7 @@
         <v>13</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -557,7 +561,7 @@
         <v>16</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -586,7 +590,7 @@
         <v>9</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -597,13 +601,13 @@
         <v>1000</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H6" s="1">
         <v>20</v>
@@ -632,7 +636,7 @@
         <v>17</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H7" s="1">
         <v>20</v>
@@ -661,7 +665,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="H8" s="1">
         <v>30</v>

--- a/Excel/TankCfg.xlsx
+++ b/Excel/TankCfg.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21722"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541DD043-8AD4-4AB7-B667-749E47F46D98}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B56EDF-D240-430C-A3BD-FF98B54E5CF5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8850" yWindow="2325" windowWidth="17460" windowHeight="13275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1065" windowWidth="17460" windowHeight="13275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -132,10 +132,6 @@
     <t>int</t>
   </si>
   <si>
-    <t>拥有坦克</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>yongyoutank</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -153,6 +149,10 @@
   </si>
   <si>
     <t>ui://Images/tank03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始坦克</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -487,7 +487,7 @@
   <dimension ref="A1:K64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -561,7 +561,7 @@
         <v>16</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -601,13 +601,13 @@
         <v>1000</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H6" s="1">
         <v>20</v>
@@ -636,7 +636,7 @@
         <v>17</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H7" s="1">
         <v>20</v>
@@ -665,7 +665,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H8" s="1">
         <v>30</v>
